--- a/자유수강권/생명과학(재료).xlsx
+++ b/자유수강권/생명과학(재료).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="139">
   <si>
     <t>주야</t>
   </si>
@@ -58,6 +58,12 @@
     <t/>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>고건</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -175,12 +181,12 @@
     <t>6반</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>고서준</t>
   </si>
   <si>
+    <t>김혜성</t>
+  </si>
+  <si>
     <t>원강호</t>
   </si>
   <si>
@@ -259,6 +265,9 @@
     <t>장현호</t>
   </si>
   <si>
+    <t>권주안</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
@@ -316,12 +325,18 @@
     <t>이태건</t>
   </si>
   <si>
+    <t>최예소</t>
+  </si>
+  <si>
     <t>성진아</t>
   </si>
   <si>
     <t>4학년</t>
   </si>
   <si>
+    <t>신지우</t>
+  </si>
+  <si>
     <t>이연진</t>
   </si>
   <si>
@@ -364,9 +379,15 @@
     <t>신현준</t>
   </si>
   <si>
+    <t>이나예</t>
+  </si>
+  <si>
     <t>최재원</t>
   </si>
   <si>
+    <t>홍나경</t>
+  </si>
+  <si>
     <t>고도영</t>
   </si>
   <si>
@@ -377,6 +398,9 @@
   </si>
   <si>
     <t>김은우</t>
+  </si>
+  <si>
+    <t>심예인</t>
   </si>
   <si>
     <t>정서헌</t>
@@ -775,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -950,13 +974,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -976,13 +1000,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
@@ -1002,10 +1026,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
@@ -1028,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>28</v>
@@ -1054,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>30</v>
@@ -1080,13 +1104,13 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -1106,7 +1130,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
@@ -1132,10 +1156,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
@@ -1158,10 +1182,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>40</v>
@@ -1184,7 +1208,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
@@ -1210,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
@@ -1236,13 +1260,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
@@ -1262,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>47</v>
@@ -1288,13 +1312,13 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1314,10 +1338,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>51</v>
@@ -1340,13 +1364,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>13</v>
@@ -1366,10 +1390,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>55</v>
@@ -1389,16 +1413,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1415,16 +1439,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1441,16 +1465,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1467,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>61</v>
@@ -1493,16 +1517,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1519,16 +1543,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1545,16 +1569,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1571,16 +1595,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1597,13 +1621,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>68</v>
@@ -1623,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>69</v>
@@ -1649,13 +1673,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>70</v>
@@ -1675,10 +1699,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>18</v>
@@ -1701,13 +1725,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>72</v>
@@ -1727,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>73</v>
@@ -1753,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>74</v>
@@ -1779,16 +1803,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
@@ -1805,16 +1829,16 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -1831,13 +1855,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>78</v>
@@ -1857,13 +1881,13 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>79</v>
@@ -1883,13 +1907,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>80</v>
@@ -1909,16 +1933,16 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>13</v>
@@ -1935,16 +1959,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
@@ -1961,16 +1985,16 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
@@ -1987,16 +2011,16 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
@@ -2013,13 +2037,13 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>87</v>
@@ -2039,13 +2063,13 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>88</v>
@@ -2065,16 +2089,16 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>13</v>
@@ -2091,16 +2115,16 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>13</v>
@@ -2117,16 +2141,16 @@
         <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>13</v>
@@ -2143,16 +2167,16 @@
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>13</v>
@@ -2169,16 +2193,16 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>13</v>
@@ -2195,13 +2219,13 @@
         <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>96</v>
@@ -2221,13 +2245,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>97</v>
@@ -2247,13 +2271,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>98</v>
@@ -2273,13 +2297,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>99</v>
@@ -2299,13 +2323,13 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>100</v>
@@ -2325,16 +2349,16 @@
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>13</v>
@@ -2351,16 +2375,16 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>13</v>
@@ -2377,16 +2401,16 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>13</v>
@@ -2403,16 +2427,16 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>13</v>
@@ -2429,13 +2453,13 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>106</v>
@@ -2455,16 +2479,16 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>13</v>
@@ -2481,16 +2505,16 @@
         <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>13</v>
@@ -2507,16 +2531,16 @@
         <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>13</v>
@@ -2533,16 +2557,16 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>13</v>
@@ -2559,16 +2583,16 @@
         <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>13</v>
@@ -2585,16 +2609,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>13</v>
@@ -2611,13 +2635,13 @@
         <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>112</v>
@@ -2637,13 +2661,13 @@
         <v>8</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>113</v>
@@ -2663,13 +2687,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>114</v>
@@ -2689,13 +2713,13 @@
         <v>8</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>115</v>
@@ -2715,16 +2739,16 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>13</v>
@@ -2741,13 +2765,13 @@
         <v>8</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>117</v>
@@ -2767,13 +2791,13 @@
         <v>8</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>118</v>
@@ -2793,13 +2817,13 @@
         <v>8</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>119</v>
@@ -2819,13 +2843,13 @@
         <v>8</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>120</v>
@@ -2845,13 +2869,13 @@
         <v>8</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>121</v>
@@ -2871,10 +2895,10 @@
         <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>30</v>
@@ -2897,13 +2921,13 @@
         <v>8</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>123</v>
@@ -2923,16 +2947,16 @@
         <v>8</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>13</v>
@@ -2949,16 +2973,16 @@
         <v>8</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>13</v>
@@ -2975,16 +2999,16 @@
         <v>8</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>13</v>
@@ -3001,16 +3025,16 @@
         <v>8</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>13</v>
@@ -3027,24 +3051,232 @@
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="13.5">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="13.5">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="1" t="s">
+      <c r="F89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="13.5">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="13.5">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="13.5">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="13.5">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="13.5">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="13.5">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>13</v>
       </c>
     </row>
